--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H2">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I2">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J2">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.86633166666667</v>
+        <v>24.41295733333333</v>
       </c>
       <c r="N2">
-        <v>56.598995</v>
+        <v>73.238872</v>
       </c>
       <c r="O2">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="P2">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="Q2">
-        <v>621.3688781974483</v>
+        <v>458.2297362315742</v>
       </c>
       <c r="R2">
-        <v>5592.319903777036</v>
+        <v>4124.067626084168</v>
       </c>
       <c r="S2">
-        <v>0.02596289012246525</v>
+        <v>0.01441958321127288</v>
       </c>
       <c r="T2">
-        <v>0.02596289012246525</v>
+        <v>0.01441958321127288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H3">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I3">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J3">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>81.49602766666665</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N3">
         <v>244.488083</v>
       </c>
       <c r="O3">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738063</v>
       </c>
       <c r="P3">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738064</v>
       </c>
       <c r="Q3">
-        <v>2684.098646386823</v>
+        <v>1529.675522376331</v>
       </c>
       <c r="R3">
-        <v>24156.88781748142</v>
+        <v>13767.07970138698</v>
       </c>
       <c r="S3">
-        <v>0.1121507057710329</v>
+        <v>0.04813586229158596</v>
       </c>
       <c r="T3">
-        <v>0.1121507057710329</v>
+        <v>0.04813586229158597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H4">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I4">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J4">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.95103433333334</v>
+        <v>58.29008100000001</v>
       </c>
       <c r="N4">
-        <v>68.853103</v>
+        <v>174.870243</v>
       </c>
       <c r="O4">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321011</v>
       </c>
       <c r="P4">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321012</v>
       </c>
       <c r="Q4">
-        <v>755.8999125606977</v>
+        <v>1094.101303535113</v>
       </c>
       <c r="R4">
-        <v>6803.099213046279</v>
+        <v>9846.911731816017</v>
       </c>
       <c r="S4">
-        <v>0.03158405105567303</v>
+        <v>0.03442920338961541</v>
       </c>
       <c r="T4">
-        <v>0.03158405105567303</v>
+        <v>0.03442920338961542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H5">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I5">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J5">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.11432133333333</v>
+        <v>6.406303</v>
       </c>
       <c r="N5">
-        <v>30.342964</v>
+        <v>19.218909</v>
       </c>
       <c r="O5">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="P5">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="Q5">
-        <v>333.1185209536947</v>
+        <v>120.2459207963857</v>
       </c>
       <c r="R5">
-        <v>2998.066688583252</v>
+        <v>1082.213287167471</v>
       </c>
       <c r="S5">
-        <v>0.01391881676206298</v>
+        <v>0.003783901226050851</v>
       </c>
       <c r="T5">
-        <v>0.01391881676206298</v>
+        <v>0.003783901226050851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>286.686402</v>
       </c>
       <c r="I6">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J6">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.86633166666667</v>
+        <v>24.41295733333333</v>
       </c>
       <c r="N6">
-        <v>56.598995</v>
+        <v>73.238872</v>
       </c>
       <c r="O6">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="P6">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="Q6">
-        <v>1802.906914818444</v>
+        <v>2332.954300024283</v>
       </c>
       <c r="R6">
-        <v>16226.16223336599</v>
+        <v>20996.58870021854</v>
       </c>
       <c r="S6">
-        <v>0.07533153940096429</v>
+        <v>0.07341345617146149</v>
       </c>
       <c r="T6">
-        <v>0.07533153940096429</v>
+        <v>0.07341345617146149</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>286.686402</v>
       </c>
       <c r="I7">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J7">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.49602766666665</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N7">
         <v>244.488083</v>
       </c>
       <c r="O7">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738063</v>
       </c>
       <c r="P7">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738064</v>
       </c>
       <c r="Q7">
-        <v>7787.934316349706</v>
+        <v>7787.934316349707</v>
       </c>
       <c r="R7">
-        <v>70091.40884714735</v>
+        <v>70091.40884714737</v>
       </c>
       <c r="S7">
-        <v>0.3254061959506653</v>
+        <v>0.2450708848405685</v>
       </c>
       <c r="T7">
-        <v>0.3254061959506653</v>
+        <v>0.2450708848405685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>286.686402</v>
       </c>
       <c r="I8">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J8">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.95103433333334</v>
+        <v>58.29008100000001</v>
       </c>
       <c r="N8">
-        <v>68.853103</v>
+        <v>174.870243</v>
       </c>
       <c r="O8">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321011</v>
       </c>
       <c r="P8">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321012</v>
       </c>
       <c r="Q8">
-        <v>2193.249818400601</v>
+        <v>5570.324531392855</v>
       </c>
       <c r="R8">
-        <v>19739.24836560541</v>
+        <v>50132.92078253569</v>
       </c>
       <c r="S8">
-        <v>0.09164138411862532</v>
+        <v>0.1752870923540892</v>
       </c>
       <c r="T8">
-        <v>0.09164138411862531</v>
+        <v>0.1752870923540892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>286.686402</v>
       </c>
       <c r="I9">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J9">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.11432133333333</v>
+        <v>6.406303</v>
       </c>
       <c r="N9">
-        <v>30.342964</v>
+        <v>19.218909</v>
       </c>
       <c r="O9">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="P9">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="Q9">
-        <v>966.5461305750588</v>
+        <v>612.1999857306021</v>
       </c>
       <c r="R9">
-        <v>8698.915175175529</v>
+        <v>5509.799871575417</v>
       </c>
       <c r="S9">
-        <v>0.04038556140631192</v>
+        <v>0.01926472233945392</v>
       </c>
       <c r="T9">
-        <v>0.04038556140631192</v>
+        <v>0.01926472233945392</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H10">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I10">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J10">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.86633166666667</v>
+        <v>24.41295733333333</v>
       </c>
       <c r="N10">
-        <v>56.598995</v>
+        <v>73.238872</v>
       </c>
       <c r="O10">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="P10">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="Q10">
-        <v>260.4237422971828</v>
+        <v>489.7630580772721</v>
       </c>
       <c r="R10">
-        <v>2343.813680674645</v>
+        <v>4407.867522695448</v>
       </c>
       <c r="S10">
-        <v>0.01088138341617176</v>
+        <v>0.01541187446242839</v>
       </c>
       <c r="T10">
-        <v>0.01088138341617176</v>
+        <v>0.01541187446242839</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H11">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I11">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J11">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.49602766666665</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N11">
         <v>244.488083</v>
       </c>
       <c r="O11">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738063</v>
       </c>
       <c r="P11">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738064</v>
       </c>
       <c r="Q11">
-        <v>1124.940496238921</v>
+        <v>1634.940953125683</v>
       </c>
       <c r="R11">
-        <v>10124.46446615029</v>
+        <v>14714.46857813115</v>
       </c>
       <c r="S11">
-        <v>0.04700381290883033</v>
+        <v>0.05144835713411552</v>
       </c>
       <c r="T11">
-        <v>0.04700381290883034</v>
+        <v>0.05144835713411552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H12">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I12">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J12">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.95103433333334</v>
+        <v>58.29008100000001</v>
       </c>
       <c r="N12">
-        <v>68.853103</v>
+        <v>174.870243</v>
       </c>
       <c r="O12">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321011</v>
       </c>
       <c r="P12">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321012</v>
       </c>
       <c r="Q12">
-        <v>316.8074406980792</v>
+        <v>1169.392463859843</v>
       </c>
       <c r="R12">
-        <v>2851.266966282713</v>
+        <v>10524.53217473859</v>
       </c>
       <c r="S12">
-        <v>0.01323728474571264</v>
+        <v>0.03679846724469416</v>
       </c>
       <c r="T12">
-        <v>0.01323728474571264</v>
+        <v>0.03679846724469416</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H13">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I13">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J13">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.11432133333333</v>
+        <v>6.406303</v>
       </c>
       <c r="N13">
-        <v>30.342964</v>
+        <v>19.218909</v>
       </c>
       <c r="O13">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="P13">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="Q13">
-        <v>139.6142853290716</v>
+        <v>128.520707483709</v>
       </c>
       <c r="R13">
-        <v>1256.528567961644</v>
+        <v>1156.686367353381</v>
       </c>
       <c r="S13">
-        <v>0.005833556324932919</v>
+        <v>0.004044292391789366</v>
       </c>
       <c r="T13">
-        <v>0.00583355632493292</v>
+        <v>0.004044292391789366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H14">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I14">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J14">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.86633166666667</v>
+        <v>24.41295733333333</v>
       </c>
       <c r="N14">
-        <v>56.598995</v>
+        <v>73.238872</v>
       </c>
       <c r="O14">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="P14">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="Q14">
-        <v>699.3590923198423</v>
+        <v>1266.401614094244</v>
       </c>
       <c r="R14">
-        <v>6294.23183087858</v>
+        <v>11397.6145268482</v>
       </c>
       <c r="S14">
-        <v>0.02922158464505096</v>
+        <v>0.03985115327411608</v>
       </c>
       <c r="T14">
-        <v>0.02922158464505096</v>
+        <v>0.03985115327411608</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H15">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I15">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J15">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>81.49602766666665</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N15">
         <v>244.488083</v>
       </c>
       <c r="O15">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738063</v>
       </c>
       <c r="P15">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738064</v>
       </c>
       <c r="Q15">
-        <v>3020.989397601463</v>
+        <v>4227.53784271838</v>
       </c>
       <c r="R15">
-        <v>27188.90457841317</v>
+        <v>38047.84058446543</v>
       </c>
       <c r="S15">
-        <v>0.1262271390523938</v>
+        <v>0.1330322519075364</v>
       </c>
       <c r="T15">
-        <v>0.1262271390523938</v>
+        <v>0.1330322519075364</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H16">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I16">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J16">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.95103433333334</v>
+        <v>58.29008100000001</v>
       </c>
       <c r="N16">
-        <v>68.853103</v>
+        <v>174.870243</v>
       </c>
       <c r="O16">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321011</v>
       </c>
       <c r="P16">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321012</v>
       </c>
       <c r="Q16">
-        <v>850.7755944692059</v>
+        <v>3023.748891056825</v>
       </c>
       <c r="R16">
-        <v>7656.980350222852</v>
+        <v>27213.74001951143</v>
       </c>
       <c r="S16">
-        <v>0.03554827744536652</v>
+        <v>0.09515139524370235</v>
       </c>
       <c r="T16">
-        <v>0.03554827744536651</v>
+        <v>0.09515139524370236</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H17">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I17">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J17">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.11432133333333</v>
+        <v>6.406303</v>
       </c>
       <c r="N17">
-        <v>30.342964</v>
+        <v>19.218909</v>
       </c>
       <c r="O17">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="P17">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="Q17">
-        <v>374.9294092825085</v>
+        <v>332.3215761533083</v>
       </c>
       <c r="R17">
-        <v>3374.364683542576</v>
+        <v>2990.894185379775</v>
       </c>
       <c r="S17">
-        <v>0.01566581687374015</v>
+        <v>0.01045750251751951</v>
       </c>
       <c r="T17">
-        <v>0.01566581687374015</v>
+        <v>0.01045750251751951</v>
       </c>
     </row>
   </sheetData>
